--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -46,63 +46,57 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>di</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -112,33 +106,39 @@
     <t>money</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -151,6 +151,9 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -163,13 +166,10 @@
     <t>loves</t>
   </si>
   <si>
-    <t>best</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
@@ -685,13 +685,13 @@
         <v>43</v>
       </c>
       <c r="K4">
-        <v>0.7692307692307693</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,37 +711,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="C5">
+        <v>137</v>
+      </c>
+      <c r="D5">
+        <v>137</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>49</v>
-      </c>
-      <c r="D5">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7330097087378641</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K6">
-        <v>0.53125</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>46</v>
       </c>
       <c r="K7">
-        <v>0.360655737704918</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>780</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7043010752688172</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="D8">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>0.3558106169296987</v>
+        <v>0.3877049180327869</v>
       </c>
       <c r="L8">
-        <v>248</v>
+        <v>473</v>
       </c>
       <c r="M8">
-        <v>248</v>
+        <v>473</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>449</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.668918918918919</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C9">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K9">
-        <v>0.2883817427385892</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L9">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="M9">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>343</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6545454545454545</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.3112033195020747</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>90</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>0.2232415902140673</v>
+        <v>0.2289156626506024</v>
       </c>
       <c r="L11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>254</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5882352941176471</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12">
-        <v>0.2228915662650602</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>129</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5370370370370371</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>0.1693121693121693</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>53</v>
       </c>
       <c r="K14">
-        <v>0.1204819277108434</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4631578947368421</v>
+        <v>0.46875</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.09991235758106924</v>
+        <v>0.1069237510955302</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4457831325301205</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K16">
-        <v>0.0474025974025974</v>
+        <v>0.04480519480519481</v>
       </c>
       <c r="L16">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>0.99</v>
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>1467</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1311,25 +1311,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4173228346456693</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>53</v>
-      </c>
-      <c r="D17">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1337,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.375</v>
+        <v>0.359375</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1363,13 +1363,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3707865168539326</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1389,13 +1389,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3222748815165877</v>
+        <v>0.3033175355450237</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1415,13 +1415,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3118811881188119</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1441,13 +1441,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3076923076923077</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>81</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1467,13 +1467,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2959183673469388</v>
+        <v>0.2136498516320475</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>69</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1493,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2525773195876289</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>145</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1519,13 +1519,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2077151335311573</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C25">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>534</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1545,13 +1545,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1930379746835443</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>255</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1571,13 +1571,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1930379746835443</v>
+        <v>0.185</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1597,13 +1597,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1920289855072464</v>
+        <v>0.180379746835443</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.18</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C29">
         <v>36</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1649,25 +1649,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1775700934579439</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>176</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1675,13 +1675,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1629955947136564</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1701,25 +1701,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1498559077809798</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>295</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1727,25 +1727,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1161048689138577</v>
+        <v>0.06105610561056106</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>236</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1753,25 +1753,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08493150684931507</v>
+        <v>0.04447852760736196</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>334</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1779,25 +1779,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.05930807248764415</v>
+        <v>0.04171934260429835</v>
       </c>
       <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
         <v>36</v>
       </c>
-      <c r="D35">
-        <v>37</v>
-      </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>571</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
